--- a/data/D_LIBRO DE RECLAMACIONES.xlsx
+++ b/data/D_LIBRO DE RECLAMACIONES.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1110F29A-3772-46E0-81DD-DCD78F198ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314B5E15-1200-471C-94CB-EA1817BE7FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ABB973C4-1E73-4CDE-B6AE-34787327B204}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55BE87E7-95E3-4B61-9AD5-3A41F1B6BA8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="LIBRO DE RECLAMACIONES" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +84,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -139,35 +139,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -190,12 +170,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -205,10 +194,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -256,34 +256,34 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -309,273 +309,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -610,6 +344,202 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -624,19 +554,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B743572-E4E1-4468-BDFE-BFB6FE2087F3}" name="Tabla8" displayName="Tabla8" ref="A1:H3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:H3" xr:uid="{DEDFD575-E084-422A-BBE7-A760EA87BCE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFB13FD0-80AE-4F49-98FC-8788605D0570}" name="Tabla1" displayName="Tabla1" ref="A1:H3" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:H3" xr:uid="{FFB13FD0-80AE-4F49-98FC-8788605D0570}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{194F7AC0-FD7C-4019-95AA-443467937EFB}" name="APELLIDOS Y NOMBRES" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C385312A-A546-428D-A7E7-CAFF67639211}" name="CARGO" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E5BEAB3D-9F1D-4467-B435-4393BCE6B23E}" name="SIGLA" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E8D9E77F-1DD3-4091-9C0B-933E47AAB9B0}" name="RESOL." dataDxfId="2" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="5" xr3:uid="{DAF0D334-A4A4-4DCD-8915-4A8228AED609}" name="TELF. FIJO" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{7543CC17-F33E-41FC-BA69-A1405A45405F}" name="CORREO INSTITUCIONAL"/>
-    <tableColumn id="7" xr3:uid="{98953001-EE48-4D17-BB89-A2F4DC6BB74E}" name="CORREOS GENERAL"/>
-    <tableColumn id="8" xr3:uid="{F5EB6BE8-5BCF-4469-BF6E-464AEBF16369}" name="ANEXO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{06271862-6E98-4901-BBC3-A3BAF65A7ECF}" name="APELLIDOS Y NOMBRES" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FEE012F3-EFAB-49BE-AF01-1B0B4FAB9FE3}" name="CARGO" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00A21229-BF9B-483D-8CBF-F4B0CD5615D1}" name="SIGLA" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7A46D446-18FD-4973-94BB-054FF76FB692}" name="RESOL."/>
+    <tableColumn id="5" xr3:uid="{C4638224-7846-4693-ACF9-9983137FF140}" name="TELF. FIJO" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{3225ABB8-2397-4182-985B-1118483F88CB}" name="CORREO INSTITUCIONAL"/>
+    <tableColumn id="7" xr3:uid="{A6215322-F667-4AAB-9990-DE97B3A97749}" name="CORREOS GENERAL"/>
+    <tableColumn id="8" xr3:uid="{22FC6F19-22FB-49E4-BC2D-ED974C0F6BEC}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -936,73 +866,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4EF16E-414B-4032-BAA3-94AB478EA8C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D297DDD-0D09-4B8B-94E1-ABF8EE1A31E7}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12" style="4"/>
+    <col min="1" max="1" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="56.25">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="56.25">
+    <row r="3" spans="1:8" ht="67.5">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>12</v>
@@ -1016,7 +944,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{72FD0520-9B0D-4F45-B739-850E2BBDAE4A}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E4DCDAB0-D390-48C5-A3D5-6037C4814BD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
